--- a/data/outputs/OR_altmetric/28.xlsx
+++ b/data/outputs/OR_altmetric/28.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE182"/>
+  <dimension ref="A1:CF182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1041,6 +1046,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1541,6 +1552,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2039,6 +2056,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2294,6 +2314,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2541,6 +2564,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2792,6 +2818,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3039,6 +3068,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3290,6 +3322,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3543,6 +3578,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3785,6 +3823,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -4017,6 +4058,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4248,6 +4292,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4491,6 +4538,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4750,6 +4800,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5009,6 +5062,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5266,6 +5322,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5511,6 +5570,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5756,6 +5818,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6003,6 +6068,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6258,6 +6326,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6517,6 +6588,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6776,6 +6850,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7027,6 +7104,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7286,6 +7366,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7547,6 +7630,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7798,6 +7884,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8043,6 +8132,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8293,6 +8385,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="32">
@@ -8513,6 +8608,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8770,6 +8868,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9007,6 +9108,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9250,6 +9354,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9493,6 +9600,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9746,6 +9856,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9997,6 +10110,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10252,6 +10368,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10499,6 +10618,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10748,6 +10870,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10993,6 +11118,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11244,6 +11372,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11487,6 +11618,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11742,6 +11876,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12001,6 +12138,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12252,6 +12392,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12503,6 +12646,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12762,6 +12908,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13005,6 +13154,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13260,6 +13412,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13505,6 +13660,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13750,6 +13908,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13997,6 +14158,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14244,6 +14408,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14491,6 +14658,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14742,6 +14912,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14993,6 +15166,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15242,6 +15418,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15491,6 +15670,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15736,6 +15918,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15989,6 +16174,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16238,6 +16426,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16487,6 +16678,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16738,6 +16932,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16995,6 +17192,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17240,6 +17440,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17481,6 +17684,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17722,6 +17928,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17965,6 +18174,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18218,6 +18430,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18463,6 +18678,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18720,6 +18938,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18967,6 +19188,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19226,6 +19450,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19475,6 +19702,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19722,6 +19952,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19981,6 +20214,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20226,6 +20462,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20465,6 +20704,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20706,6 +20948,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20949,6 +21194,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21198,6 +21446,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21441,6 +21692,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21702,6 +21956,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21947,6 +22204,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22188,6 +22448,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22433,6 +22696,9 @@
         <v>0</v>
       </c>
       <c r="CE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22674,6 +22940,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22927,6 +23196,9 @@
         <v>0</v>
       </c>
       <c r="CE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23148,6 +23420,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23395,6 +23670,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23654,6 +23932,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23901,6 +24182,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24144,6 +24428,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24403,6 +24690,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24648,6 +24938,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24893,6 +25186,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25136,6 +25432,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25387,6 +25686,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25631,6 +25933,9 @@
       </c>
       <c r="CE101" t="n">
         <v>0</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="102">
@@ -25875,6 +26180,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26130,6 +26438,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26375,6 +26686,9 @@
         <v>0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26624,6 +26938,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26873,6 +27190,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27116,6 +27436,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27353,6 +27676,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27604,6 +27930,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27853,6 +28182,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28104,6 +28436,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28357,6 +28692,9 @@
         <v>0</v>
       </c>
       <c r="CE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28602,6 +28940,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28845,6 +29186,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29094,6 +29438,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29339,6 +29686,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29598,6 +29948,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29849,6 +30202,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30110,6 +30466,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30361,6 +30720,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30610,6 +30972,9 @@
         <v>0</v>
       </c>
       <c r="CE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30851,6 +31216,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31104,6 +31472,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31353,6 +31724,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31594,6 +31968,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31843,6 +32220,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32088,6 +32468,9 @@
         <v>0</v>
       </c>
       <c r="CE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32329,6 +32712,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32580,6 +32966,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32837,6 +33226,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33074,6 +33466,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33307,6 +33702,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33538,6 +33936,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>17.75</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33767,6 +34168,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>17.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34010,6 +34414,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34253,6 +34660,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34494,6 +34904,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34737,6 +35150,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34985,6 +35401,9 @@
       </c>
       <c r="CE139" t="n">
         <v>0</v>
+      </c>
+      <c r="CF139" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="140">
@@ -35229,6 +35648,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35482,6 +35904,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35731,6 +36156,9 @@
         <v>0</v>
       </c>
       <c r="CE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35974,6 +36402,9 @@
         <v>0</v>
       </c>
       <c r="CE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36215,6 +36646,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36466,6 +36900,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36719,6 +37156,9 @@
         <v>0</v>
       </c>
       <c r="CE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36968,6 +37408,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37221,6 +37664,9 @@
         <v>0</v>
       </c>
       <c r="CE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37458,6 +37904,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37702,6 +38151,9 @@
       </c>
       <c r="CE150" t="n">
         <v>0</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="151">
@@ -37946,6 +38398,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38205,6 +38660,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38456,6 +38914,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38719,6 +39180,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38972,6 +39436,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39221,6 +39688,9 @@
         <v>0</v>
       </c>
       <c r="CE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39472,6 +39942,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39727,6 +40200,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -39978,6 +40454,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40237,6 +40716,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40486,6 +40968,9 @@
         <v>0</v>
       </c>
       <c r="CE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40727,6 +41212,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -40971,6 +41459,9 @@
       </c>
       <c r="CE163" t="n">
         <v>0</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="164">
@@ -41207,6 +41698,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41452,6 +41946,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41707,6 +42204,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -41958,6 +42458,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42211,6 +42714,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -42456,6 +42962,9 @@
         <v>0</v>
       </c>
       <c r="CE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42701,6 +43210,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -42952,6 +43464,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43199,6 +43714,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43442,6 +43960,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -43693,6 +44214,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -43940,6 +44464,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44200,6 +44727,9 @@
       </c>
       <c r="CE176" t="n">
         <v>0</v>
+      </c>
+      <c r="CF176" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="177">
@@ -44440,6 +44970,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -44681,6 +45214,9 @@
         <v>0</v>
       </c>
       <c r="CE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44910,6 +45446,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45139,6 +45678,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45398,6 +45940,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -45657,6 +46202,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
